--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" firstSheet="2" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="338">
   <si>
     <t>Username</t>
   </si>
@@ -567,9 +567,6 @@
     <t>s95767432100</t>
   </si>
   <si>
-    <t>s983654321</t>
-  </si>
-  <si>
     <t>EntityUploadNotFilledMandatoryData</t>
   </si>
   <si>
@@ -840,9 +837,6 @@
     <t>auditoruser@tlregtech.com</t>
   </si>
   <si>
-    <t>swaroop</t>
-  </si>
-  <si>
     <t>Companyadmin</t>
   </si>
   <si>
@@ -882,9 +876,6 @@
     <t>Amdabad</t>
   </si>
   <si>
-    <t xml:space="preserve"> admin@111</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -927,12 +918,6 @@
     <t>Contractor new First</t>
   </si>
   <si>
-    <t>contractor.infrafirst@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9000203333</t>
-  </si>
-  <si>
     <t>Hyderabad Construction</t>
   </si>
   <si>
@@ -942,12 +927,6 @@
     <t>Teamlease User2</t>
   </si>
   <si>
-    <t>teamleasenew11@gmail.com</t>
-  </si>
-  <si>
-    <t>s6170000211</t>
-  </si>
-  <si>
     <t>VH 910</t>
   </si>
   <si>
@@ -978,64 +957,88 @@
     <t>No. Of Projects Add Verify document First</t>
   </si>
   <si>
-    <t>directoruser11@gmail.com</t>
-  </si>
-  <si>
-    <t>directoruser4@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8900314177</t>
-  </si>
-  <si>
     <t>Mahesh</t>
   </si>
   <si>
     <t>Contractor Mahesh</t>
   </si>
   <si>
-    <t>maheshcontractor@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9432160992</t>
-  </si>
-  <si>
-    <t>sandeep6@avn.in</t>
-  </si>
-  <si>
-    <t>s8765030033</t>
-  </si>
-  <si>
     <t>PRI Update First</t>
   </si>
   <si>
     <t>Sandeep new</t>
   </si>
   <si>
-    <t>sandeepnewc@gmail.com</t>
-  </si>
-  <si>
     <t>DemoPune new</t>
   </si>
   <si>
-    <t>demopune7new@tlcg.in</t>
-  </si>
-  <si>
-    <t>admincomp@regtrack.com</t>
-  </si>
-  <si>
-    <t>entitynew@gmail.com</t>
-  </si>
-  <si>
     <t>Project Directors first</t>
   </si>
   <si>
-    <t>useradmin@gmail.com</t>
-  </si>
-  <si>
-    <t>s8777333333</t>
-  </si>
-  <si>
-    <t>Construction City</t>
+    <t xml:space="preserve"> admin@222</t>
+  </si>
+  <si>
+    <t>avantis@123</t>
+  </si>
+  <si>
+    <t>Team@123</t>
+  </si>
+  <si>
+    <t>ABCD Pune Entity</t>
+  </si>
+  <si>
+    <t>abcd@regtrack.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcdnew@gmail.com</t>
+  </si>
+  <si>
+    <t>ad_min@gmail.com</t>
+  </si>
+  <si>
+    <t>s8777333341</t>
+  </si>
+  <si>
+    <t>team@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9077203332</t>
+  </si>
+  <si>
+    <t>teamnew@gmail.com</t>
+  </si>
+  <si>
+    <t>s6170000232</t>
+  </si>
+  <si>
+    <t>team@gmail.com</t>
+  </si>
+  <si>
+    <t>directorteam@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8900904177</t>
+  </si>
+  <si>
+    <t>maheshteam@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9432760993</t>
+  </si>
+  <si>
+    <t>sandeepteam@avn.in</t>
+  </si>
+  <si>
+    <t>s8765780032</t>
+  </si>
+  <si>
+    <t>team@tlcg.in</t>
+  </si>
+  <si>
+    <t>s983654320</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1502,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1510,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1518,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1526,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1534,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1542,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1550,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1558,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1574,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1582,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1598,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1606,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1614,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1622,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1630,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1638,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1646,7 +1649,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1654,7 +1657,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1662,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1670,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1678,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1686,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1694,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1702,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1710,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1734,7 +1737,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1742,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1750,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1758,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1766,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1774,7 +1777,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1790,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1806,7 +1809,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1814,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1830,7 +1833,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1838,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1862,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1870,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1878,7 +1881,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1886,7 +1889,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1894,7 +1897,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1910,7 +1913,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1942,7 +1945,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1950,7 +1953,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1958,7 +1961,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1966,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1974,7 +1977,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1982,7 +1985,7 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1990,7 +1993,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1998,7 +2001,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2006,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2014,7 +2017,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2022,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2030,7 +2033,7 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2038,7 +2041,7 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2046,7 +2049,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2062,7 +2065,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2070,7 +2073,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2078,7 +2081,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2086,7 +2089,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2094,7 +2097,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2102,7 +2105,7 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2110,7 +2113,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2118,7 +2121,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2126,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2134,7 +2137,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2142,7 +2145,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2150,7 +2153,7 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2158,7 +2161,7 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2174,7 +2177,7 @@
         <v>94</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2182,7 +2185,7 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2190,7 +2193,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2198,7 +2201,7 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2206,7 +2209,7 @@
         <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2214,7 +2217,7 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2222,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2230,7 +2233,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2238,7 +2241,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2246,7 +2249,7 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,7 +2257,7 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2262,7 +2265,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2270,7 +2273,7 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2286,7 +2289,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2294,7 +2297,7 @@
         <v>112</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,7 +2305,7 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,7 +2321,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2326,7 +2329,7 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2334,7 +2337,7 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2342,7 +2345,7 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -2358,7 +2361,7 @@
         <v>119</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2366,7 +2369,7 @@
         <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2374,7 +2377,7 @@
         <v>139</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2382,7 +2385,7 @@
         <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2390,7 +2393,7 @@
         <v>144</v>
       </c>
       <c r="B112" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2398,7 +2401,7 @@
         <v>145</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2406,7 +2409,7 @@
         <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2414,7 +2417,7 @@
         <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,7 +2425,7 @@
         <v>152</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -2494,7 +2497,7 @@
         <v>167</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -2539,210 +2542,210 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" t="s">
         <v>181</v>
-      </c>
-      <c r="B131" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" t="s">
         <v>201</v>
-      </c>
-      <c r="B140" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B155" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" t="s">
         <v>233</v>
-      </c>
-      <c r="B156" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2786,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2797,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -2806,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2815,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2823,7 +2826,7 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2831,7 +2834,7 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2839,7 +2842,7 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2847,7 +2850,7 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2919,7 +2922,7 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2927,7 +2930,7 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2935,28 +2938,28 @@
         <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3004,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3027,6 +3030,7 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3067,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3116,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3139,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3165,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3205,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="340">
   <si>
     <t>Username</t>
   </si>
@@ -306,9 +306,6 @@
     <t>LicenceTypeSearchButton</t>
   </si>
   <si>
-    <t>BCOM Licence</t>
-  </si>
-  <si>
     <t>DataPointDescription</t>
   </si>
   <si>
@@ -450,12 +447,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>projecthead@tlregtech.in</t>
-  </si>
-  <si>
-    <t>management@tlregtech.in</t>
-  </si>
-  <si>
     <t>SubCity</t>
   </si>
   <si>
@@ -729,9 +720,6 @@
     <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster without Enter Two Mandatory Field.xlsx</t>
   </si>
   <si>
-    <t>vendor@tlregtech.in</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com</t>
   </si>
   <si>
@@ -768,12 +756,6 @@
     <t>E:\BackupDesktop\FileUploadForEntityMaster\ActBulkUpload (1).xlsx</t>
   </si>
   <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (3).xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (1).xlsx</t>
-  </si>
-  <si>
     <t>E:\BackupDesktop\FileUploadForEntityMaster\TemplateBulkUpload.xlsx</t>
   </si>
   <si>
@@ -813,39 +795,24 @@
     <t>Hinjewadi</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>s20-07-2023</t>
   </si>
   <si>
     <t>s15-07-2023</t>
   </si>
   <si>
-    <t>Test Act</t>
-  </si>
-  <si>
     <t>Pari Contractor</t>
   </si>
   <si>
     <t>shital.bhoyar@tlregtech.in</t>
   </si>
   <si>
-    <t xml:space="preserve">ishu@gmail.com </t>
-  </si>
-  <si>
-    <t>auditoruser@tlregtech.com</t>
-  </si>
-  <si>
     <t>Companyadmin</t>
   </si>
   <si>
     <t>Infra</t>
   </si>
   <si>
-    <t>rajesh</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -864,181 +831,220 @@
     <t>E:\BackupDesktop\FileUploadForEntityMaster\Contractor-ProjectMapping (2) (1).xlsx</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Teamlease regtech</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>Amdabad</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
     <t>No. Of Projects Add Verify</t>
   </si>
   <si>
-    <t>Project Directors</t>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\screenshot.png</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\Word Trick.docx</t>
+  </si>
+  <si>
+    <t>admin@111</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Hyderabad City1</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>s983654320</t>
+  </si>
+  <si>
+    <t>miya</t>
+  </si>
+  <si>
+    <t>venderowner@gmail.com</t>
+  </si>
+  <si>
+    <t>auditorowner@gmail.com</t>
+  </si>
+  <si>
+    <t>mgmtowner@gmail.com</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload.xlsx</t>
+  </si>
+  <si>
+    <t>Internal Compliance</t>
+  </si>
+  <si>
+    <t>shitalbhoyar0002@gmail.com</t>
+  </si>
+  <si>
+    <t>Finance &amp; Accountants</t>
+  </si>
+  <si>
+    <t>Finance Project</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>ABC Infra</t>
+  </si>
+  <si>
+    <t>abcd@tlcg.in</t>
+  </si>
+  <si>
+    <t>Compliance Header Internal Case</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (4).xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (5).xlsx</t>
+  </si>
+  <si>
+    <t>ABC Park</t>
+  </si>
+  <si>
+    <t>abc@regtrack.com</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>Gareema</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>gareea.director@gmail.com</t>
+  </si>
+  <si>
+    <t>s6677740033</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>poonam@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s6672333344</t>
+  </si>
+  <si>
+    <t>Girish</t>
+  </si>
+  <si>
+    <t>Darade</t>
+  </si>
+  <si>
+    <t>girish.darde@gmail.com</t>
+  </si>
+  <si>
+    <t>s6756990222</t>
+  </si>
+  <si>
+    <t>Act on date 04062024 Monday</t>
+  </si>
+  <si>
+    <t>Template_GPW</t>
+  </si>
+  <si>
+    <t>Nisha Contractor</t>
+  </si>
+  <si>
+    <t>Neha Contractor</t>
+  </si>
+  <si>
+    <t>Bhuch</t>
+  </si>
+  <si>
+    <t>Bhachav</t>
+  </si>
+  <si>
+    <t>Finance &amp;&amp; Account</t>
+  </si>
+  <si>
+    <t>Finance &amp;&amp; Accountants</t>
+  </si>
+  <si>
+    <t>No.of employee (Text/number)</t>
+  </si>
+  <si>
+    <t>Umesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Umesh</t>
+  </si>
+  <si>
+    <t>umesh.yadav@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8733904141</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>pearl@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9432762942</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>kiran@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s8768780034</t>
+  </si>
+  <si>
+    <t>keeran</t>
+  </si>
+  <si>
+    <t>Contractors</t>
   </si>
   <si>
     <t>Constructions</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>sandeep Infra</t>
-  </si>
-  <si>
-    <t>Carpentering</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\screenshot.png</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\Word Trick.docx</t>
-  </si>
-  <si>
-    <t>admin@111</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Hyderabad City1</t>
-  </si>
-  <si>
-    <t>Contractor new First</t>
-  </si>
-  <si>
-    <t>Hyderabad Construction</t>
-  </si>
-  <si>
-    <t>DI 72</t>
-  </si>
-  <si>
-    <t>Teamlease User2</t>
-  </si>
-  <si>
-    <t>VH 910</t>
-  </si>
-  <si>
-    <t>Added Features new added with document First.</t>
-  </si>
-  <si>
-    <t>Added Featured Added With Document First.</t>
-  </si>
-  <si>
-    <t>Template_new 711</t>
-  </si>
-  <si>
-    <t>Wakdewadi</t>
-  </si>
-  <si>
-    <t>Mohu</t>
-  </si>
-  <si>
-    <t>Featured Licence Modified First</t>
-  </si>
-  <si>
-    <t>Featured Licence Modified 1 First</t>
-  </si>
-  <si>
-    <t>No. Of Products Add document First</t>
-  </si>
-  <si>
-    <t>No. Of Projects Add Verify document First</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>Contractor Mahesh</t>
-  </si>
-  <si>
-    <t>PRI Update First</t>
-  </si>
-  <si>
-    <t>Sandeep new</t>
-  </si>
-  <si>
-    <t>DemoPune new</t>
-  </si>
-  <si>
-    <t>Project Directors first</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> admin@222</t>
-  </si>
-  <si>
-    <t>avantis@123</t>
-  </si>
-  <si>
-    <t>Team@123</t>
-  </si>
-  <si>
-    <t>ABCD Pune Entity</t>
-  </si>
-  <si>
-    <t>abcd@regtrack.com</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>abcdnew@gmail.com</t>
-  </si>
-  <si>
-    <t>ad_min@gmail.com</t>
-  </si>
-  <si>
-    <t>s8777333341</t>
-  </si>
-  <si>
-    <t>team@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9077203332</t>
-  </si>
-  <si>
-    <t>teamnew@gmail.com</t>
-  </si>
-  <si>
-    <t>s6170000232</t>
-  </si>
-  <si>
-    <t>team@gmail.com</t>
-  </si>
-  <si>
-    <t>directorteam@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8900904177</t>
-  </si>
-  <si>
-    <t>maheshteam@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9432760993</t>
-  </si>
-  <si>
-    <t>sandeepteam@avn.in</t>
-  </si>
-  <si>
-    <t>s8765780032</t>
-  </si>
-  <si>
-    <t>team@tlcg.in</t>
-  </si>
-  <si>
-    <t>s983654320</t>
+    <t>sudeepbuilders56@gmail.com</t>
+  </si>
+  <si>
+    <t>Compliance on date 05062024 june</t>
+  </si>
+  <si>
+    <t>s57</t>
+  </si>
+  <si>
+    <t>KRI Park</t>
+  </si>
+  <si>
+    <t>s37</t>
+  </si>
+  <si>
+    <t>KRI Park Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>Act on date 04062024 Tuesday</t>
+  </si>
+  <si>
+    <t>Compliance on date 04062024 Tuesday</t>
+  </si>
+  <si>
+    <t>projectheadowner@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1201,11 +1207,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1488,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1505,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1521,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1529,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1537,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1545,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1553,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1561,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1569,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1577,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1585,7 +1591,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1593,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1601,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1609,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1617,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1625,15 +1631,15 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>315</v>
+      <c r="B17" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1649,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1657,15 +1663,15 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>258</v>
+      <c r="B21" s="22" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1673,7 +1679,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1681,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1689,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1697,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1705,7 +1711,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1713,7 +1719,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1737,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1745,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1753,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1761,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1769,7 +1775,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1777,7 +1783,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1793,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1809,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1817,7 +1823,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1833,7 +1839,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1841,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1879,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1887,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1895,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1903,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1919,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,7 +1927,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1945,7 +1951,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,7 +1959,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1961,7 +1967,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1969,7 +1975,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1977,7 +1983,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1985,7 +1991,7 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1993,7 +1999,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2001,7 +2007,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2009,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2017,7 +2023,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2031,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2047,7 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2049,7 +2055,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2071,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2073,7 +2079,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2087,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2103,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2105,7 +2111,7 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2113,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2121,7 +2127,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2135,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2137,7 +2143,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2145,7 +2151,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2153,7 +2159,7 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2161,7 +2167,7 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,148 +2175,148 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2318,50 +2324,50 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
         <v>117</v>
-      </c>
-      <c r="B107" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>290</v>
+        <v>118</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2369,383 +2375,399 @@
         <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B152" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B156" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -2809,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2818,148 +2840,148 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>318</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
         <v>125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
         <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
         <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +2999,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2999,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3007,23 +3029,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>317</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3063,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>317</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3112,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3120,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3161,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3152,7 +3174,7 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3161,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3169,16 +3191,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>316</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3201,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3209,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ManagementCredentials" sheetId="6" r:id="rId6"/>
     <sheet name="Login" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="343">
   <si>
     <t>Username</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Ok.</t>
   </si>
   <si>
-    <t>projectdirector@tlregtech.in</t>
-  </si>
-  <si>
     <t>File</t>
   </si>
   <si>
@@ -849,9 +846,6 @@
     <t>E:\BackupDesktop\FileUploadForEntityMaster\Word Trick.docx</t>
   </si>
   <si>
-    <t>admin@111</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -888,18 +882,12 @@
     <t>Finance &amp; Accountants</t>
   </si>
   <si>
-    <t>Finance Project</t>
-  </si>
-  <si>
     <t>Yadav</t>
   </si>
   <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>ABC Infra</t>
-  </si>
-  <si>
     <t>abcd@tlcg.in</t>
   </si>
   <si>
@@ -912,105 +900,30 @@
     <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (5).xlsx</t>
   </si>
   <si>
-    <t>ABC Park</t>
-  </si>
-  <si>
     <t>abc@regtrack.com</t>
   </si>
   <si>
     <t>abcd@gmail.com</t>
   </si>
   <si>
-    <t>Gareema</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>gareea.director@gmail.com</t>
-  </si>
-  <si>
-    <t>s6677740033</t>
-  </si>
-  <si>
-    <t>Poonam</t>
-  </si>
-  <si>
-    <t>poonam@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s6672333344</t>
-  </si>
-  <si>
-    <t>Girish</t>
-  </si>
-  <si>
     <t>Darade</t>
   </si>
   <si>
-    <t>girish.darde@gmail.com</t>
-  </si>
-  <si>
-    <t>s6756990222</t>
-  </si>
-  <si>
-    <t>Act on date 04062024 Monday</t>
-  </si>
-  <si>
-    <t>Template_GPW</t>
-  </si>
-  <si>
-    <t>Nisha Contractor</t>
-  </si>
-  <si>
-    <t>Neha Contractor</t>
-  </si>
-  <si>
-    <t>Bhuch</t>
-  </si>
-  <si>
     <t>Bhachav</t>
   </si>
   <si>
-    <t>Finance &amp;&amp; Account</t>
-  </si>
-  <si>
     <t>Finance &amp;&amp; Accountants</t>
   </si>
   <si>
     <t>No.of employee (Text/number)</t>
   </si>
   <si>
-    <t>Umesh@gmail.com</t>
-  </si>
-  <si>
     <t>Umesh</t>
   </si>
   <si>
-    <t>umesh.yadav@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8733904141</t>
-  </si>
-  <si>
-    <t>Pearl</t>
-  </si>
-  <si>
-    <t>pearl@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9432762942</t>
-  </si>
-  <si>
     <t>Kiran</t>
   </si>
   <si>
-    <t>kiran@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s8768780034</t>
-  </si>
-  <si>
     <t>keeran</t>
   </si>
   <si>
@@ -1020,31 +933,127 @@
     <t>Constructions</t>
   </si>
   <si>
-    <t>sudeepbuilders56@gmail.com</t>
-  </si>
-  <si>
-    <t>Compliance on date 05062024 june</t>
-  </si>
-  <si>
-    <t>s57</t>
-  </si>
-  <si>
-    <t>KRI Park</t>
-  </si>
-  <si>
-    <t>s37</t>
-  </si>
-  <si>
-    <t>KRI Park Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>Act on date 04062024 Tuesday</t>
-  </si>
-  <si>
-    <t>Compliance on date 04062024 Tuesday</t>
-  </si>
-  <si>
     <t>projectheadowner@gmail.com</t>
+  </si>
+  <si>
+    <t>projectdirectorowner@gmail.com</t>
+  </si>
+  <si>
+    <t>state Internal Compliance</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload-state.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload-State-Statutory.xlsx</t>
+  </si>
+  <si>
+    <t>State Statutory Compliance</t>
+  </si>
+  <si>
+    <t>ABC Hub Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamlease </t>
+  </si>
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>Rathi</t>
+  </si>
+  <si>
+    <t>sahil.director@gmail.com</t>
+  </si>
+  <si>
+    <t>s6677740032</t>
+  </si>
+  <si>
+    <t>Shriya</t>
+  </si>
+  <si>
+    <t>shriya@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s6672333341</t>
+  </si>
+  <si>
+    <t>TRI Industries</t>
+  </si>
+  <si>
+    <t>BOC34</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>abc.darde@gmail.com</t>
+  </si>
+  <si>
+    <t>s6756990240</t>
+  </si>
+  <si>
+    <t>MNO4</t>
+  </si>
+  <si>
+    <t>Act on date 16072024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act on date 16072024 </t>
+  </si>
+  <si>
+    <t>Compliance on date 16072024</t>
+  </si>
+  <si>
+    <t>Temp_GPW</t>
+  </si>
+  <si>
+    <t>ABC Contractor</t>
+  </si>
+  <si>
+    <t>ABC Contractors</t>
+  </si>
+  <si>
+    <t>Amaravti</t>
+  </si>
+  <si>
+    <t>Finance Project1</t>
+  </si>
+  <si>
+    <t>abc.users@gmail.com</t>
+  </si>
+  <si>
+    <t>abc.umesh@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8733904138</t>
+  </si>
+  <si>
+    <t>abc@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9432762971</t>
+  </si>
+  <si>
+    <t>kiran11@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s8768780027</t>
+  </si>
+  <si>
+    <t>KRI Industries</t>
+  </si>
+  <si>
+    <t>sudeep.builders56@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC Infra pune</t>
+  </si>
+  <si>
+    <t>Compliance on date 16072024 Jul</t>
+  </si>
+  <si>
+    <t>State internal compliance as on 16072024 jul</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1519,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1535,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1543,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1559,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1567,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1616,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1615,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1623,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1631,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1639,7 +1648,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1647,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1655,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1663,7 +1672,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1671,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1679,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1687,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1695,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1703,7 +1712,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1711,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1719,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1743,7 +1752,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1751,7 +1760,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1759,7 +1768,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1767,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1775,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1783,7 +1792,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1799,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1815,7 +1824,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1823,7 +1832,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1839,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1847,7 +1856,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1871,7 +1880,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1879,7 +1888,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1887,7 +1896,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1895,7 +1904,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1903,7 +1912,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1919,7 +1928,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1951,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1959,7 +1968,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1967,7 +1976,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1975,7 +1984,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1983,7 +1992,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1991,7 +2000,7 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1999,7 +2008,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2007,7 +2016,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2015,7 +2024,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2023,7 +2032,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2031,7 +2040,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2039,7 +2048,7 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2047,7 +2056,7 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2055,7 +2064,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2071,7 +2080,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2079,7 +2088,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2087,7 +2096,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2095,7 +2104,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2103,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,7 +2120,7 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2119,7 +2128,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2127,7 +2136,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2135,7 +2144,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2143,7 +2152,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2151,7 +2160,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2159,7 +2168,7 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2167,7 +2176,7 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2175,7 +2184,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2183,7 +2192,7 @@
         <v>93</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2191,7 +2200,7 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2199,7 +2208,7 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2207,7 +2216,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2215,7 +2224,7 @@
         <v>97</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2223,7 +2232,7 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,7 +2240,7 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2239,7 +2248,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2247,7 +2256,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2255,7 +2264,7 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2263,7 +2272,7 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2271,7 +2280,7 @@
         <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2279,7 +2288,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2295,7 +2304,7 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2303,7 +2312,7 @@
         <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,7 +2320,7 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2327,7 +2336,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2335,7 +2344,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2343,7 +2352,7 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2351,7 +2360,7 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -2367,7 +2376,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2375,399 +2384,423 @@
         <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>176</v>
+      </c>
+      <c r="B131" t="s">
         <v>177</v>
-      </c>
-      <c r="B131" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" t="s">
         <v>197</v>
-      </c>
-      <c r="B140" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B153" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" t="s">
         <v>229</v>
-      </c>
-      <c r="B156" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -2831,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2848,7 +2881,7 @@
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2856,7 +2889,7 @@
         <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2864,7 +2897,7 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2872,7 +2905,7 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2917,7 +2950,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
@@ -2925,63 +2958,63 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
         <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3042,7 +3075,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -3062,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3085,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3112,7 +3145,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3134,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3142,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3224,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3232,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="344">
   <si>
     <t>Username</t>
   </si>
@@ -180,12 +180,6 @@
     <t>MapContractEndDate</t>
   </si>
   <si>
-    <t>s10-05-2023</t>
-  </si>
-  <si>
-    <t>s10-08-2023</t>
-  </si>
-  <si>
     <t>MapDocumentSubmissionDueDays</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>TextCloserTextCT</t>
   </si>
   <si>
-    <t>s09-07-2023</t>
-  </si>
-  <si>
     <t>CityValidationSearch</t>
   </si>
   <si>
@@ -243,9 +234,6 @@
     <t>ActivationDateAC</t>
   </si>
   <si>
-    <t>s12-07-2023</t>
-  </si>
-  <si>
     <t>DeActivationDateAC</t>
   </si>
   <si>
@@ -792,15 +780,6 @@
     <t>Hinjewadi</t>
   </si>
   <si>
-    <t>s20-07-2023</t>
-  </si>
-  <si>
-    <t>s15-07-2023</t>
-  </si>
-  <si>
-    <t>Pari Contractor</t>
-  </si>
-  <si>
     <t>shital.bhoyar@tlregtech.in</t>
   </si>
   <si>
@@ -849,9 +828,6 @@
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>Hyderabad City1</t>
-  </si>
-  <si>
     <t>abcd</t>
   </si>
   <si>
@@ -879,18 +855,9 @@
     <t>shitalbhoyar0002@gmail.com</t>
   </si>
   <si>
-    <t>Finance &amp; Accountants</t>
-  </si>
-  <si>
-    <t>Yadav</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>abcd@tlcg.in</t>
-  </si>
-  <si>
     <t>Compliance Header Internal Case</t>
   </si>
   <si>
@@ -909,30 +876,6 @@
     <t>Darade</t>
   </si>
   <si>
-    <t>Bhachav</t>
-  </si>
-  <si>
-    <t>Finance &amp;&amp; Accountants</t>
-  </si>
-  <si>
-    <t>No.of employee (Text/number)</t>
-  </si>
-  <si>
-    <t>Umesh</t>
-  </si>
-  <si>
-    <t>Kiran</t>
-  </si>
-  <si>
-    <t>keeran</t>
-  </si>
-  <si>
-    <t>Contractors</t>
-  </si>
-  <si>
-    <t>Constructions</t>
-  </si>
-  <si>
     <t>projectheadowner@gmail.com</t>
   </si>
   <si>
@@ -951,109 +894,169 @@
     <t>State Statutory Compliance</t>
   </si>
   <si>
-    <t>ABC Hub Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teamlease </t>
-  </si>
-  <si>
-    <t>Sahil</t>
-  </si>
-  <si>
-    <t>Rathi</t>
-  </si>
-  <si>
-    <t>sahil.director@gmail.com</t>
-  </si>
-  <si>
-    <t>s6677740032</t>
-  </si>
-  <si>
-    <t>Shriya</t>
-  </si>
-  <si>
-    <t>shriya@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s6672333341</t>
-  </si>
-  <si>
-    <t>TRI Industries</t>
-  </si>
-  <si>
-    <t>BOC34</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>abc.darde@gmail.com</t>
-  </si>
-  <si>
-    <t>s6756990240</t>
-  </si>
-  <si>
-    <t>MNO4</t>
-  </si>
-  <si>
-    <t>Act on date 16072024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act on date 16072024 </t>
-  </si>
-  <si>
-    <t>Compliance on date 16072024</t>
-  </si>
-  <si>
-    <t>Temp_GPW</t>
-  </si>
-  <si>
-    <t>ABC Contractor</t>
-  </si>
-  <si>
-    <t>ABC Contractors</t>
-  </si>
-  <si>
-    <t>Amaravti</t>
-  </si>
-  <si>
-    <t>Finance Project1</t>
-  </si>
-  <si>
-    <t>abc.users@gmail.com</t>
-  </si>
-  <si>
-    <t>abc.umesh@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8733904138</t>
-  </si>
-  <si>
-    <t>abc@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9432762971</t>
-  </si>
-  <si>
-    <t>kiran11@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s8768780027</t>
-  </si>
-  <si>
-    <t>KRI Industries</t>
-  </si>
-  <si>
-    <t>sudeep.builders56@gmail.com</t>
-  </si>
-  <si>
-    <t>ABC Infra pune</t>
-  </si>
-  <si>
-    <t>Compliance on date 16072024 Jul</t>
-  </si>
-  <si>
-    <t>State internal compliance as on 16072024 jul</t>
+    <t>Shiv</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>s10-05-2024</t>
+  </si>
+  <si>
+    <t>s10-08-2024</t>
+  </si>
+  <si>
+    <t>s12-07-2024</t>
+  </si>
+  <si>
+    <t>Shekh</t>
+  </si>
+  <si>
+    <t>VCA</t>
+  </si>
+  <si>
+    <t>s09-07-2024</t>
+  </si>
+  <si>
+    <t>Furnishing</t>
+  </si>
+  <si>
+    <t>Gadchiroli</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Finance &amp; Marketing</t>
+  </si>
+  <si>
+    <t>No.of employee working In weekend (Text/number)</t>
+  </si>
+  <si>
+    <t>Yogita</t>
+  </si>
+  <si>
+    <t>mahure</t>
+  </si>
+  <si>
+    <t>Kisori</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Ludhiyanaa</t>
+  </si>
+  <si>
+    <t>admin@111</t>
+  </si>
+  <si>
+    <t>Wrindavan Park</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>directorvca@gmail.com</t>
+  </si>
+  <si>
+    <t>s6677140000</t>
+  </si>
+  <si>
+    <t>Sandip</t>
+  </si>
+  <si>
+    <t>sandipcontractor@gmail.com</t>
+  </si>
+  <si>
+    <t>s6672333000</t>
+  </si>
+  <si>
+    <t>Ambuja</t>
+  </si>
+  <si>
+    <t>AMBJ7890</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>amrita@gmail.com</t>
+  </si>
+  <si>
+    <t>s6756990013</t>
+  </si>
+  <si>
+    <t>AMBJ41</t>
+  </si>
+  <si>
+    <t>Cyber Security Act</t>
+  </si>
+  <si>
+    <t>s20-09-2024</t>
+  </si>
+  <si>
+    <t>s15-10-2024</t>
+  </si>
+  <si>
+    <t>Cyber Security in 2024</t>
+  </si>
+  <si>
+    <t>Security_Temp</t>
+  </si>
+  <si>
+    <t>Chor Mauli</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.of employee working In weekdays </t>
+  </si>
+  <si>
+    <t>amin@gmail.com</t>
+  </si>
+  <si>
+    <t>amin@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8000704132</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>sunil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9432762300</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>salim@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s8768780123</t>
+  </si>
+  <si>
+    <t>Ultractech</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>builders000@gmail.com</t>
+  </si>
+  <si>
+    <t>Bangaloar_VCA</t>
+  </si>
+  <si>
+    <t>Security Cyber crime 2024</t>
+  </si>
+  <si>
+    <t>Security Cyber crime 2023</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1520,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1536,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1552,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1560,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1568,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1576,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1584,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1592,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1600,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1608,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1616,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1624,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1632,7 +1635,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1640,7 +1643,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1648,7 +1651,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1656,7 +1659,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1664,7 +1667,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1672,7 +1675,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1680,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1688,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1696,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1704,7 +1707,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1712,7 +1715,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1720,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1728,7 +1731,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1752,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1760,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1768,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1776,7 +1779,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1784,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1792,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1808,7 +1811,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1824,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1832,7 +1835,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1848,7 +1851,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1856,7 +1859,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1864,7 +1867,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>51</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1872,52 +1875,52 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -1925,31 +1928,31 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1957,50 +1960,50 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2008,308 +2011,308 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>330</v>
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>336</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
         <v>337</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2333,15 +2336,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
         <v>338</v>
@@ -2349,458 +2352,458 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B147" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B148" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B149" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B150" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B153" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -2864,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2878,143 +2881,143 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3035,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3054,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3062,23 +3065,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3167,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3216,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3224,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3257,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3265,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ManagementCredentials" sheetId="6" r:id="rId6"/>
     <sheet name="Login" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="346">
   <si>
     <t>Username</t>
   </si>
@@ -546,54 +546,27 @@
     <t>EntityUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\EntityBulkUpload not Filled Mandatory Field.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\UserMaster Not Filling Mandatory Field.xlsx</t>
-  </si>
-  <si>
     <t>UserUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\ProjectMasterNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
     <t>ProjectUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\ContractorMasterNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
     <t>ContractorUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\Contractor-ProjectMappingNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
     <t>ContractorProjectMappingUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\ActBulkUploadNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
     <t>ActUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\ComplianceBulkUploadNotFillingMandatoryDtata.xlsx</t>
-  </si>
-  <si>
     <t>ComplianceUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\TemplateBulkUploadNotFilledMandatoryData.xlsx</t>
-  </si>
-  <si>
     <t>TemplateUploadNotFilledMandatoryData</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeScenarios FileUpload\ComplianceMappingBulkUploadNotFillingMandatoryDtata.xlsx</t>
-  </si>
-  <si>
     <t>ComplianceMappingTabUploadNotFilledMandatoryData</t>
   </si>
   <si>
@@ -606,24 +579,6 @@
     <t>UploadEntityWithoutEnterTwoMandatoryField</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\EntityBulkUpload Two Mandatory Field.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\EntityBulkUpload subEntity Type Accept Different name Of system.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\EntityBulkUpload Type Accept different type.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\EntityBulkUpload Legal Entity accept different type.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\EntityBulkUpload Industry type accept different value.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\EntityBulkUpload EmailId Accept Numbers.xlsx</t>
-  </si>
-  <si>
     <t>UploadEntityAcceptDiffrentSubEntityTypeField</t>
   </si>
   <si>
@@ -639,21 +594,6 @@
     <t>UploadEntityAcceptEmailFieldNumbers</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\UserMaster contact field accept text.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\UserMaster EmailId field Accept numbers.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\UserMaster role field accept different name.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\UserMaster text field accept numbers.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\UserMaster without entering two mandatory field.xlsx</t>
-  </si>
-  <si>
     <t>UserMaster contact field accept text</t>
   </si>
   <si>
@@ -669,48 +609,27 @@
     <t>UserMaster without entering two mandatory field</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster Location Field Accept Different Name.xlsx</t>
-  </si>
-  <si>
     <t>ProjectMaster Location Field Accept Different Name</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster Location Type Accept Type Different Name.xlsx</t>
-  </si>
-  <si>
     <t>ProjectMaster Location Type Accept Type Different Name</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster Project director email field accept numbers.xlsx</t>
-  </si>
-  <si>
     <t>ProjectMaster Project director email field accept numbers</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster project head email field accept different numbers.xlsx</t>
-  </si>
-  <si>
     <t>ProjectMaster project head email field accept different numbers</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster project name field accept numbers.xlsx</t>
-  </si>
-  <si>
     <t>ProjectMaster project name field accept numbers</t>
   </si>
   <si>
     <t>ProjectMaster without Enter Two Mandatory Field</t>
   </si>
   <si>
-    <t>C:\Users\Shital Bhoyar\Desktop\NegativeUploadFileEntityMaster\ProjectMaster without Enter Two Mandatory Field.xlsx</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com</t>
   </si>
   <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\EntityBulkUpload.xlsx</t>
-  </si>
-  <si>
     <t>E:\BackupDesktop\FileUploadForEntityMaster\EntityBulkUpload (11).xlsx</t>
   </si>
   <si>
@@ -846,9 +765,6 @@
     <t>mgmtowner@gmail.com</t>
   </si>
   <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload.xlsx</t>
-  </si>
-  <si>
     <t>Internal Compliance</t>
   </si>
   <si>
@@ -873,9 +789,6 @@
     <t>abcd@gmail.com</t>
   </si>
   <si>
-    <t>Darade</t>
-  </si>
-  <si>
     <t>projectheadowner@gmail.com</t>
   </si>
   <si>
@@ -924,139 +837,232 @@
     <t>Gadchiroli</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Finance &amp; Marketing</t>
   </si>
   <si>
-    <t>No.of employee working In weekend (Text/number)</t>
-  </si>
-  <si>
     <t>Yogita</t>
   </si>
   <si>
     <t>mahure</t>
   </si>
   <si>
-    <t>Kisori</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
     <t>Ludhiyanaa</t>
   </si>
   <si>
     <t>admin@111</t>
   </si>
   <si>
-    <t>Wrindavan Park</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>directorvca@gmail.com</t>
-  </si>
-  <si>
-    <t>s6677140000</t>
-  </si>
-  <si>
-    <t>Sandip</t>
-  </si>
-  <si>
-    <t>sandipcontractor@gmail.com</t>
-  </si>
-  <si>
-    <t>s6672333000</t>
-  </si>
-  <si>
-    <t>Ambuja</t>
-  </si>
-  <si>
-    <t>AMBJ7890</t>
-  </si>
-  <si>
-    <t>Amrita</t>
-  </si>
-  <si>
-    <t>amrita@gmail.com</t>
-  </si>
-  <si>
-    <t>s6756990013</t>
-  </si>
-  <si>
-    <t>AMBJ41</t>
-  </si>
-  <si>
-    <t>Cyber Security Act</t>
-  </si>
-  <si>
     <t>s20-09-2024</t>
   </si>
   <si>
     <t>s15-10-2024</t>
   </si>
   <si>
-    <t>Cyber Security in 2024</t>
-  </si>
-  <si>
-    <t>Security_Temp</t>
-  </si>
-  <si>
     <t>Chor Mauli</t>
   </si>
   <si>
     <t>Security</t>
   </si>
   <si>
-    <t xml:space="preserve">No.of employee working In weekdays </t>
-  </si>
-  <si>
-    <t>amin@gmail.com</t>
-  </si>
-  <si>
-    <t>amin@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8000704132</t>
-  </si>
-  <si>
     <t>Sunil</t>
   </si>
   <si>
-    <t>sunil@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9432762300</t>
-  </si>
-  <si>
     <t>Salim</t>
   </si>
   <si>
-    <t>salim@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s8768780123</t>
-  </si>
-  <si>
-    <t>Ultractech</t>
-  </si>
-  <si>
     <t>Recycling</t>
   </si>
   <si>
-    <t>builders000@gmail.com</t>
-  </si>
-  <si>
-    <t>Bangaloar_VCA</t>
-  </si>
-  <si>
-    <t>Security Cyber crime 2024</t>
-  </si>
-  <si>
-    <t>Security Cyber crime 2023</t>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload not Filled Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster Not Filling Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMasterNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ContractorMasterNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\Contractor-ProjectMappingNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ActBulkUploadNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUploadNotFillingMandatoryDtata.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\TemplateBulkUploadNotFilledMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceMappingBulkUploadNotFillingMandatoryDtata.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Two Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload subEntity Type Accept Different name Of system.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Type Accept different type.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Legal Entity accept different type.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Industry type accept different value.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload EmailId Accept Numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster contact field accept text.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster EmailId field Accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster role field accept different name.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster text field accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster without entering two mandatory field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Location Field Accept Different Name.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Location Type Accept Type Different Name.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Project director email field accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster project head email field accept different numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster project name field accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster without Enter Two Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUpload.xlsx</t>
+  </si>
+  <si>
+    <t>Maisure Limited</t>
+  </si>
+  <si>
+    <t>directorOne</t>
+  </si>
+  <si>
+    <t>Directorone@gmail.com</t>
+  </si>
+  <si>
+    <t>s6677140776</t>
+  </si>
+  <si>
+    <t>Sumeetra</t>
+  </si>
+  <si>
+    <t>sumeetracontractor@gmail.com</t>
+  </si>
+  <si>
+    <t>s6672333004</t>
+  </si>
+  <si>
+    <t>Gopi Heritage</t>
+  </si>
+  <si>
+    <t>AMBJ7811</t>
+  </si>
+  <si>
+    <t>DipaliD</t>
+  </si>
+  <si>
+    <t>Devere</t>
+  </si>
+  <si>
+    <t>DipaliD@gmail.com</t>
+  </si>
+  <si>
+    <t>s6756990060</t>
+  </si>
+  <si>
+    <t>AMBJ01</t>
+  </si>
+  <si>
+    <t>Cyber Security Act1</t>
+  </si>
+  <si>
+    <t>Cyber Security in 2020</t>
+  </si>
+  <si>
+    <t>CyberSecurity_Temp</t>
+  </si>
+  <si>
+    <t>Paintings</t>
+  </si>
+  <si>
+    <t>Security Purpose</t>
+  </si>
+  <si>
+    <t>Marketing Purpose</t>
+  </si>
+  <si>
+    <t>No.of employee working In weekdays1</t>
+  </si>
+  <si>
+    <t>No.of employee working In weekends (Text/number)</t>
+  </si>
+  <si>
+    <t>amin11@gmail.com</t>
+  </si>
+  <si>
+    <t>amin21@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8000704133</t>
+  </si>
+  <si>
+    <t>sunil111@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9432762311</t>
+  </si>
+  <si>
+    <t>salim11@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s8768780122</t>
+  </si>
+  <si>
+    <t>Kisori User</t>
+  </si>
+  <si>
+    <t>SBS Limited</t>
+  </si>
+  <si>
+    <t>builders111@gmail.com</t>
+  </si>
+  <si>
+    <t>Maisure Branch</t>
+  </si>
+  <si>
+    <t>admin001@gmail.com</t>
+  </si>
+  <si>
+    <t>Security Cyber crime 2022</t>
+  </si>
+  <si>
+    <t>Security Cyber crime 2022-2027</t>
+  </si>
+  <si>
+    <t>E:\VenderAuditProject\TestData\Bulk upload sheets\EntityBulkUpload.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1523,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1539,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1555,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1603,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1611,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1619,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1627,7 +1633,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1635,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1651,7 +1657,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1659,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1667,7 +1673,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1675,7 +1681,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1683,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1691,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1699,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1707,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1715,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1723,7 +1729,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1731,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1755,7 +1761,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1763,7 +1769,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1771,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1779,7 +1785,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1787,7 +1793,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1795,7 +1801,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1811,7 +1817,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1827,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1835,7 +1841,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1851,7 +1857,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1859,7 +1865,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1867,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1875,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1883,7 +1889,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1891,7 +1897,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1899,7 +1905,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1907,7 +1913,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1915,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1931,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1947,7 +1953,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1963,7 +1969,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1971,7 +1977,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1979,7 +1985,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1987,7 +1993,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1995,7 +2001,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2003,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2011,7 +2017,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2019,7 +2025,7 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2027,7 +2033,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2035,7 +2041,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2043,7 +2049,7 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2051,7 +2057,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2059,7 +2065,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2075,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2083,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2091,7 +2097,7 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2107,7 +2113,7 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2115,7 +2121,7 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2123,7 +2129,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2131,7 +2137,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2139,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2147,7 +2153,7 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2155,7 +2161,7 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2163,7 +2169,7 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2179,7 +2185,7 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2187,7 +2193,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2195,7 +2201,7 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2203,7 +2209,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2211,7 +2217,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2219,7 +2225,7 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2227,7 +2233,7 @@
         <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2235,7 +2241,7 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2243,7 +2249,7 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2251,7 +2257,7 @@
         <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2259,7 +2265,7 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2267,7 +2273,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2275,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2283,7 +2289,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2291,7 +2297,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2307,7 +2313,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2339,7 +2345,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2347,7 +2353,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2355,7 +2361,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2363,7 +2369,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -2379,7 +2385,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2387,7 +2393,7 @@
         <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2403,7 +2409,7 @@
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2419,7 +2425,7 @@
         <v>137</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2427,7 +2433,7 @@
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2435,7 +2441,7 @@
         <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -2443,7 +2449,7 @@
         <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -2515,7 +2521,7 @@
         <v>159</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -2563,239 +2569,239 @@
         <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B159" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2803,7 +2809,7 @@
         <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2843,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2858,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2876,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2884,7 +2890,7 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2892,7 +2898,7 @@
         <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2900,7 +2906,7 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2908,7 +2914,7 @@
         <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2980,7 +2986,7 @@
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2988,7 +2994,7 @@
         <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2996,28 +3002,28 @@
         <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3065,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3121,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3129,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3147,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3170,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3178,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3227,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3268,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="348">
   <si>
     <t>Username</t>
   </si>
@@ -735,9 +735,6 @@
     <t>s10</t>
   </si>
   <si>
-    <t>No. Of Projects Add Verify</t>
-  </si>
-  <si>
     <t>E:\BackupDesktop\FileUploadForEntityMaster\screenshot.png</t>
   </si>
   <si>
@@ -810,9 +807,6 @@
     <t>Shiv</t>
   </si>
   <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
     <t>s10-05-2024</t>
   </si>
   <si>
@@ -822,57 +816,21 @@
     <t>s12-07-2024</t>
   </si>
   <si>
-    <t>Shekh</t>
-  </si>
-  <si>
     <t>VCA</t>
   </si>
   <si>
-    <t>s09-07-2024</t>
-  </si>
-  <si>
     <t>Furnishing</t>
   </si>
   <si>
     <t>Gadchiroli</t>
   </si>
   <si>
-    <t>Finance &amp; Marketing</t>
-  </si>
-  <si>
-    <t>Yogita</t>
-  </si>
-  <si>
-    <t>mahure</t>
-  </si>
-  <si>
-    <t>Ludhiyanaa</t>
-  </si>
-  <si>
-    <t>admin@111</t>
-  </si>
-  <si>
     <t>s20-09-2024</t>
   </si>
   <si>
     <t>s15-10-2024</t>
   </si>
   <si>
-    <t>Chor Mauli</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Sunil</t>
-  </si>
-  <si>
-    <t>Salim</t>
-  </si>
-  <si>
-    <t>Recycling</t>
-  </si>
-  <si>
     <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload not Filled Mandatory Field.xlsx</t>
   </si>
   <si>
@@ -954,115 +912,163 @@
     <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUpload.xlsx</t>
   </si>
   <si>
-    <t>Maisure Limited</t>
-  </si>
-  <si>
-    <t>directorOne</t>
-  </si>
-  <si>
-    <t>Directorone@gmail.com</t>
-  </si>
-  <si>
-    <t>s6677140776</t>
-  </si>
-  <si>
-    <t>Sumeetra</t>
-  </si>
-  <si>
-    <t>sumeetracontractor@gmail.com</t>
-  </si>
-  <si>
-    <t>s6672333004</t>
-  </si>
-  <si>
-    <t>Gopi Heritage</t>
-  </si>
-  <si>
-    <t>AMBJ7811</t>
-  </si>
-  <si>
-    <t>DipaliD</t>
-  </si>
-  <si>
-    <t>Devere</t>
-  </si>
-  <si>
-    <t>DipaliD@gmail.com</t>
-  </si>
-  <si>
-    <t>s6756990060</t>
-  </si>
-  <si>
-    <t>AMBJ01</t>
-  </si>
-  <si>
-    <t>Cyber Security Act1</t>
-  </si>
-  <si>
-    <t>Cyber Security in 2020</t>
-  </si>
-  <si>
-    <t>CyberSecurity_Temp</t>
-  </si>
-  <si>
-    <t>Paintings</t>
-  </si>
-  <si>
-    <t>Security Purpose</t>
-  </si>
-  <si>
-    <t>Marketing Purpose</t>
-  </si>
-  <si>
-    <t>No.of employee working In weekdays1</t>
-  </si>
-  <si>
-    <t>No.of employee working In weekends (Text/number)</t>
-  </si>
-  <si>
-    <t>amin11@gmail.com</t>
-  </si>
-  <si>
-    <t>amin21@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8000704133</t>
-  </si>
-  <si>
-    <t>sunil111@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9432762311</t>
-  </si>
-  <si>
-    <t>salim11@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s8768780122</t>
-  </si>
-  <si>
-    <t>Kisori User</t>
-  </si>
-  <si>
-    <t>SBS Limited</t>
-  </si>
-  <si>
-    <t>builders111@gmail.com</t>
-  </si>
-  <si>
-    <t>Maisure Branch</t>
-  </si>
-  <si>
-    <t>admin001@gmail.com</t>
-  </si>
-  <si>
-    <t>Security Cyber crime 2022</t>
-  </si>
-  <si>
-    <t>Security Cyber crime 2022-2027</t>
-  </si>
-  <si>
-    <t>E:\VenderAuditProject\TestData\Bulk upload sheets\EntityBulkUpload.xlsx</t>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\EntityBulkUpload.xlsx</t>
+  </si>
+  <si>
+    <t>admin101@gmail.com</t>
+  </si>
+  <si>
+    <t>VCAAudit_Limited_</t>
+  </si>
+  <si>
+    <t>vca111@gmail.com</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Cyber</t>
+  </si>
+  <si>
+    <t>ABC Gold</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>No. Of Projects Add In Number</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>AMARAVTI</t>
+  </si>
+  <si>
+    <t>Canteen</t>
+  </si>
+  <si>
+    <t>s09-11-2024</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Hadpsar_Branch</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com\</t>
+  </si>
+  <si>
+    <t>avantis@123</t>
+  </si>
+  <si>
+    <t>Mumbai East</t>
+  </si>
+  <si>
+    <t>DirectorVCA</t>
+  </si>
+  <si>
+    <t>Director12@gmail.com</t>
+  </si>
+  <si>
+    <t>s6677420573</t>
+  </si>
+  <si>
+    <t>Brijesh</t>
+  </si>
+  <si>
+    <t>brijesh11@gmail.com</t>
+  </si>
+  <si>
+    <t>s6672333311</t>
+  </si>
+  <si>
+    <t>GUIHTBO Limited</t>
+  </si>
+  <si>
+    <t>AMBJ78220</t>
+  </si>
+  <si>
+    <t>Director13</t>
+  </si>
+  <si>
+    <t>director13@gmail.com</t>
+  </si>
+  <si>
+    <t>s6756995603</t>
+  </si>
+  <si>
+    <t>AMBjklL</t>
+  </si>
+  <si>
+    <t>Cyber Security Act 35</t>
+  </si>
+  <si>
+    <t>Cyber Security in200030Dec</t>
+  </si>
+  <si>
+    <t>Coal template1</t>
+  </si>
+  <si>
+    <t>Roaling</t>
+  </si>
+  <si>
+    <t>BOIIS</t>
+  </si>
+  <si>
+    <t>SSMIFS</t>
+  </si>
+  <si>
+    <t>No.of employee working On one project</t>
+  </si>
+  <si>
+    <t>No.of employee working In weekends (number/Text)</t>
+  </si>
+  <si>
+    <t>head33@gmail.com</t>
+  </si>
+  <si>
+    <t>HeadUser</t>
+  </si>
+  <si>
+    <t>vca</t>
+  </si>
+  <si>
+    <t>head33@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8870703122</t>
+  </si>
+  <si>
+    <t>BrijeshCA</t>
+  </si>
+  <si>
+    <t>brijesh43@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9402762341</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>sunny@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9043780311</t>
+  </si>
+  <si>
+    <t>Security Cyber crime 302001</t>
+  </si>
+  <si>
+    <t>Security Cyber crime 30092002</t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1529,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1545,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1553,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1561,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1569,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1577,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1585,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1593,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1601,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1609,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1617,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1657,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1665,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1673,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1681,7 +1687,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1713,7 +1719,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1729,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1737,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1761,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1777,7 +1783,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1793,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1879,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1887,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1903,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1911,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1919,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,7 +1927,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,7 +1959,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2017,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2031,7 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2039,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2047,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2071,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2073,7 +2079,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2087,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2103,7 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2105,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2135,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2137,7 +2143,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2145,7 +2151,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2153,7 +2159,7 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2161,7 +2167,7 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2177,7 +2183,7 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,7 +2191,7 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -2193,7 +2199,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,7 +2207,7 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2209,7 +2215,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2217,7 +2223,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2233,7 +2239,7 @@
         <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2241,7 +2247,7 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2249,7 +2255,7 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2257,7 +2263,7 @@
         <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2265,7 +2271,7 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2273,7 +2279,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2281,7 +2287,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2289,7 +2295,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2297,7 +2303,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2313,7 +2319,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2321,7 +2327,7 @@
         <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2329,7 +2335,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2345,7 +2351,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2353,7 +2359,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2385,7 +2391,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2393,7 +2399,7 @@
         <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2401,7 +2407,7 @@
         <v>133</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2409,7 +2415,7 @@
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2417,7 +2423,7 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2425,7 +2431,7 @@
         <v>137</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2521,7 +2527,7 @@
         <v>159</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -2569,7 +2575,7 @@
         <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -2577,7 +2583,7 @@
         <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2585,7 +2591,7 @@
         <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -2593,7 +2599,7 @@
         <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -2601,7 +2607,7 @@
         <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -2609,7 +2615,7 @@
         <v>177</v>
       </c>
       <c r="B136" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -2617,7 +2623,7 @@
         <v>178</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -2625,7 +2631,7 @@
         <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -2633,7 +2639,7 @@
         <v>180</v>
       </c>
       <c r="B139" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -2641,7 +2647,7 @@
         <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2649,7 +2655,7 @@
         <v>184</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2657,7 +2663,7 @@
         <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2665,7 +2671,7 @@
         <v>186</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2673,7 +2679,7 @@
         <v>187</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -2681,7 +2687,7 @@
         <v>188</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2689,7 +2695,7 @@
         <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2697,7 +2703,7 @@
         <v>190</v>
       </c>
       <c r="B147" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2705,7 +2711,7 @@
         <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2713,7 +2719,7 @@
         <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2721,7 +2727,7 @@
         <v>193</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2729,7 +2735,7 @@
         <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2737,7 +2743,7 @@
         <v>195</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2745,7 +2751,7 @@
         <v>196</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -2753,7 +2759,7 @@
         <v>197</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -2761,7 +2767,7 @@
         <v>198</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2769,39 +2775,39 @@
         <v>199</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>255</v>
+      </c>
+      <c r="B159" t="s">
         <v>256</v>
-      </c>
-      <c r="B159" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2809,7 +2815,7 @@
         <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2849,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2873,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2882,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3010,7 +3016,7 @@
         <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3018,7 +3024,7 @@
         <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3041,7 +3047,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3063,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3127,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3135,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3160,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3176,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3184,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3209,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3217,7 +3223,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3225,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3233,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>UploadDocumentL</t>
   </si>
   <si>
-    <t>s10-10-2024</t>
-  </si>
-  <si>
     <t>CloserDate</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
     <t>Companyadmin</t>
   </si>
   <si>
-    <t>Infra</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -753,322 +747,328 @@
     <t>miya</t>
   </si>
   <si>
+    <t>Internal Compliance</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Compliance Header Internal Case</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (4).xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (5).xlsx</t>
+  </si>
+  <si>
+    <t>abc@regtrack.com</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>projectdirectorowner@gmail.com</t>
+  </si>
+  <si>
+    <t>state Internal Compliance</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload-state.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload-State-Statutory.xlsx</t>
+  </si>
+  <si>
+    <t>State Statutory Compliance</t>
+  </si>
+  <si>
+    <t>Shiv</t>
+  </si>
+  <si>
+    <t>s10-05-2024</t>
+  </si>
+  <si>
+    <t>s10-08-2024</t>
+  </si>
+  <si>
+    <t>Gadchiroli</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload not Filled Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster Not Filling Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMasterNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ContractorMasterNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\Contractor-ProjectMappingNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ActBulkUploadNotFillingMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUploadNotFillingMandatoryDtata.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\TemplateBulkUploadNotFilledMandatoryData.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceMappingBulkUploadNotFillingMandatoryDtata.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Two Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload subEntity Type Accept Different name Of system.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Type Accept different type.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Legal Entity accept different type.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Industry type accept different value.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload EmailId Accept Numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster contact field accept text.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster EmailId field Accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster role field accept different name.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster text field accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster without entering two mandatory field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Location Field Accept Different Name.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Location Type Accept Type Different Name.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Project director email field accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster project head email field accept different numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster project name field accept numbers.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster without Enter Two Mandatory Field.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUpload.xlsx</t>
+  </si>
+  <si>
+    <t>E:\BackupDesktop\FileUploadForEntityMaster\EntityBulkUpload.xlsx</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>No. Of Projects Add In Number</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>AMARAVTI</t>
+  </si>
+  <si>
+    <t>Canteen</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com\</t>
+  </si>
+  <si>
+    <t>Nayak</t>
+  </si>
+  <si>
+    <t>s10-10-2025</t>
+  </si>
+  <si>
+    <t>s09-11-2025</t>
+  </si>
+  <si>
+    <t>s20-09-2025</t>
+  </si>
+  <si>
+    <t>s15-10-2025</t>
+  </si>
+  <si>
+    <t>s12-07-2025</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>Mohinder</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>mgmt11@gmail.com</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>CloudSphere Innovations Pune hub</t>
+  </si>
+  <si>
+    <t>CodeCrafters hadpsar</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>abc11@gmail.com</t>
+  </si>
+  <si>
+    <t>s6677420000</t>
+  </si>
+  <si>
+    <t>John Vendor</t>
+  </si>
+  <si>
+    <t>s6670133385</t>
+  </si>
+  <si>
+    <t>john01@gmail.com</t>
+  </si>
+  <si>
+    <t>StratEdge Groups and industries</t>
+  </si>
+  <si>
+    <t>START56EDG567</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>mohan.Roy@gmail.com</t>
+  </si>
+  <si>
+    <t>s6706991042</t>
+  </si>
+  <si>
+    <t>START56EDGE567</t>
+  </si>
+  <si>
+    <t>Food &amp; Technology industries 24</t>
+  </si>
+  <si>
+    <t>Food &amp; Technology industries compliance date on 16 Feb 25</t>
+  </si>
+  <si>
+    <t>Food Industries group</t>
+  </si>
+  <si>
+    <t>Food Storage group</t>
+  </si>
+  <si>
+    <t>Food Technologies</t>
+  </si>
+  <si>
+    <t>SSIIMB</t>
+  </si>
+  <si>
+    <t>SSMIFD</t>
+  </si>
+  <si>
+    <t>No.of employee working on ongoing project</t>
+  </si>
+  <si>
+    <t>No.of employee working In holidays (number/Text)</t>
+  </si>
+  <si>
+    <t>mohinder.tech@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohinder.sony@tlregtech.com</t>
+  </si>
+  <si>
+    <t>s8870701299</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>pooja.M@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9402767863</t>
+  </si>
+  <si>
+    <t>mohan@tlregtech.in</t>
+  </si>
+  <si>
+    <t>s9783782722</t>
+  </si>
+  <si>
+    <t>mahendra</t>
+  </si>
+  <si>
+    <t>ABBSI</t>
+  </si>
+  <si>
+    <t>abc67@gmail.com</t>
+  </si>
+  <si>
+    <t>Visionary Insights group</t>
+  </si>
+  <si>
+    <t>admin77@gmail.com</t>
+  </si>
+  <si>
+    <t>Food &amp; Tech Compliances as on date 16 mar</t>
+  </si>
+  <si>
+    <t>Food &amp; Tech Internal Compliances  as on date 16 mar</t>
+  </si>
+  <si>
+    <t>shitalbhoyar0002@gmail.com</t>
+  </si>
+  <si>
+    <t>raam@gmail.com</t>
+  </si>
+  <si>
     <t>venderowner@gmail.com</t>
   </si>
   <si>
     <t>auditorowner@gmail.com</t>
   </si>
   <si>
-    <t>mgmtowner@gmail.com</t>
-  </si>
-  <si>
-    <t>Internal Compliance</t>
-  </si>
-  <si>
-    <t>shitalbhoyar0002@gmail.com</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Compliance Header Internal Case</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (4).xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload (5).xlsx</t>
-  </si>
-  <si>
-    <t>abc@regtrack.com</t>
-  </si>
-  <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>projectheadowner@gmail.com</t>
-  </si>
-  <si>
-    <t>projectdirectorowner@gmail.com</t>
-  </si>
-  <si>
-    <t>state Internal Compliance</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload-state.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\ComplianceBulkUpload-State-Statutory.xlsx</t>
-  </si>
-  <si>
-    <t>State Statutory Compliance</t>
-  </si>
-  <si>
-    <t>Shiv</t>
-  </si>
-  <si>
-    <t>s10-05-2024</t>
-  </si>
-  <si>
-    <t>s10-08-2024</t>
-  </si>
-  <si>
-    <t>s12-07-2024</t>
-  </si>
-  <si>
-    <t>VCA</t>
-  </si>
-  <si>
-    <t>Furnishing</t>
-  </si>
-  <si>
-    <t>Gadchiroli</t>
-  </si>
-  <si>
-    <t>s20-09-2024</t>
-  </si>
-  <si>
-    <t>s15-10-2024</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload not Filled Mandatory Field.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster Not Filling Mandatory Field.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMasterNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ContractorMasterNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\Contractor-ProjectMappingNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ActBulkUploadNotFillingMandatoryData.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUploadNotFillingMandatoryDtata.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\TemplateBulkUploadNotFilledMandatoryData.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceMappingBulkUploadNotFillingMandatoryDtata.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Two Mandatory Field.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload subEntity Type Accept Different name Of system.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Type Accept different type.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Legal Entity accept different type.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload Industry type accept different value.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\EntityBulkUpload EmailId Accept Numbers.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster contact field accept text.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster EmailId field Accept numbers.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster role field accept different name.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster text field accept numbers.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\UserMaster without entering two mandatory field.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Location Field Accept Different Name.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Location Type Accept Type Different Name.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster Project director email field accept numbers.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster project head email field accept different numbers.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster project name field accept numbers.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ProjectMaster without Enter Two Mandatory Field.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\NegativeScenarios FileUpload\ComplianceBulkUpload.xlsx</t>
-  </si>
-  <si>
-    <t>E:\BackupDesktop\FileUploadForEntityMaster\EntityBulkUpload.xlsx</t>
-  </si>
-  <si>
-    <t>admin101@gmail.com</t>
-  </si>
-  <si>
-    <t>VCAAudit_Limited_</t>
-  </si>
-  <si>
-    <t>vca111@gmail.com</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Cyber</t>
-  </si>
-  <si>
-    <t>ABC Gold</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>No. Of Projects Add In Number</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>AMARAVTI</t>
-  </si>
-  <si>
-    <t>Canteen</t>
-  </si>
-  <si>
-    <t>s09-11-2024</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>Hadpsar_Branch</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>https://login.teamleaseregtech.com/</t>
-  </si>
-  <si>
-    <t>https://login.teamleaseregtech.com\</t>
-  </si>
-  <si>
-    <t>avantis@123</t>
-  </si>
-  <si>
-    <t>Mumbai East</t>
-  </si>
-  <si>
-    <t>DirectorVCA</t>
-  </si>
-  <si>
-    <t>Director12@gmail.com</t>
-  </si>
-  <si>
-    <t>s6677420573</t>
-  </si>
-  <si>
-    <t>Brijesh</t>
-  </si>
-  <si>
-    <t>brijesh11@gmail.com</t>
-  </si>
-  <si>
-    <t>s6672333311</t>
-  </si>
-  <si>
-    <t>GUIHTBO Limited</t>
-  </si>
-  <si>
-    <t>AMBJ78220</t>
-  </si>
-  <si>
-    <t>Director13</t>
-  </si>
-  <si>
-    <t>director13@gmail.com</t>
-  </si>
-  <si>
-    <t>s6756995603</t>
-  </si>
-  <si>
-    <t>AMBjklL</t>
-  </si>
-  <si>
-    <t>Cyber Security Act 35</t>
-  </si>
-  <si>
-    <t>Cyber Security in200030Dec</t>
-  </si>
-  <si>
-    <t>Coal template1</t>
-  </si>
-  <si>
-    <t>Roaling</t>
-  </si>
-  <si>
-    <t>BOIIS</t>
-  </si>
-  <si>
-    <t>SSMIFS</t>
-  </si>
-  <si>
-    <t>No.of employee working On one project</t>
-  </si>
-  <si>
-    <t>No.of employee working In weekends (number/Text)</t>
-  </si>
-  <si>
-    <t>head33@gmail.com</t>
-  </si>
-  <si>
-    <t>HeadUser</t>
-  </si>
-  <si>
-    <t>vca</t>
-  </si>
-  <si>
-    <t>head33@tlregtech.com</t>
-  </si>
-  <si>
-    <t>s8870703122</t>
-  </si>
-  <si>
-    <t>BrijeshCA</t>
-  </si>
-  <si>
-    <t>brijesh43@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9402762341</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>sunny@tlregtech.in</t>
-  </si>
-  <si>
-    <t>s9043780311</t>
-  </si>
-  <si>
-    <t>Security Cyber crime 302001</t>
-  </si>
-  <si>
-    <t>Security Cyber crime 30092002</t>
+    <t>admin#123</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1647,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1703,7 +1703,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1711,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1719,7 +1719,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1735,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1759,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1767,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1815,7 +1815,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1823,31 +1823,31 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1860,111 +1860,111 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1972,50 +1972,50 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2023,805 +2023,805 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
         <v>112</v>
-      </c>
-      <c r="B107" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B145" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B154" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B161" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="vendoradmin@vca.com"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
     <hyperlink ref="B7" r:id="rId3" display="shital5@gmail.com"/>
     <hyperlink ref="B8" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
@@ -2856,7 +2856,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2870,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="20"/>
     </row>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -2888,148 +2888,148 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
         <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
         <v>138</v>
-      </c>
-      <c r="B14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3046,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3061,7 +3061,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3077,23 +3077,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3125,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3159,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3209,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3223,7 +3223,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3258,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3272,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="3370"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3046,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3061,7 +3061,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>302</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
